--- a/medicine/Pharmacie/Moxifloxacine/Moxifloxacine.xlsx
+++ b/medicine/Pharmacie/Moxifloxacine/Moxifloxacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La moxifloxacine est une molécule antibiotique, de la classe des fluoroquinolones.
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La moxifloxacine inhibe l'ADN gyrase bactérienne. Elle a également une action bactéricide sur le Mycobacterium tuberculosis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La moxifloxacine inhibe l'ADN gyrase bactérienne. Elle a également une action bactéricide sur le Mycobacterium tuberculosis.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle diffuse bien dans les espaces interstitiels[3]. Sa biodisponibilité et sa demi-vie sont supérieures à celles de la ciprofloxacine[4] permettant une administration une fois par jour au lieu de deux[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle diffuse bien dans les espaces interstitiels. Sa biodisponibilité et sa demi-vie sont supérieures à celles de la ciprofloxacine permettant une administration une fois par jour au lieu de deux.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est utilisée dans les pneumopathies infectieuses banales[6].
-Dans la tuberculose, elle a une certaine efficacité[7] mais qui n'est pas suffisante pour réduire la durée du traitement conventionnel[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est utilisée dans les pneumopathies infectieuses banales.
+Dans la tuberculose, elle a une certaine efficacité mais qui n'est pas suffisante pour réduire la durée du traitement conventionnel.
 </t>
         </is>
       </c>
@@ -606,9 +624,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle expose à des syndromes de Lyell, des hépatites fulminantes, et un surcroît de troubles cardiaques[9]. Les rapports signalant une augmentation significative de l'incidence des résistances à la moxifloxacine (en particulier de la part des Bacteroides)[10].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle expose à des syndromes de Lyell, des hépatites fulminantes, et un surcroît de troubles cardiaques. Les rapports signalant une augmentation significative de l'incidence des résistances à la moxifloxacine (en particulier de la part des Bacteroides).
 </t>
         </is>
       </c>
